--- a/rosetta/2b) Fixed Star Lookup.xlsx
+++ b/rosetta/2b) Fixed Star Lookup.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TyLm1I5nSzHnsq5Jj96Nhywri2o4gqYcO/i2JNPbaFw="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="447">
   <si>
     <t>Fixed Star</t>
   </si>
@@ -25,6 +30,9 @@
     <t>Absolute Degree Decimal</t>
   </si>
   <si>
+    <t>Meaning</t>
+  </si>
+  <si>
     <t>Diphda (Beta Ceti)</t>
   </si>
   <si>
@@ -43,6 +51,18 @@
     <t>9°28'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Algenib (γ Pegasi)
+Constellation &amp; Degree: Tip of Pegasus’ wing, ~09°09′ Aries
+Planetary Nature: Mars + Mercury (primary), with Jupiter undertones from spectral class
+Body part: rules the bottom portion of the skull between the nose and upper lip
+Algenib fuels intensity, oratory, and relentless drive. It grants a sharp, determined mind but can create volatility, notoriety, and tension under strain.
+Positive:
+Penetrating intellect, decisive speech, inventive ideas, fighting spirit, charisma in writing and rhetoric, pioneering ambition.
+Shadow:
+Violence, notoriety, dishonor, obsessive drive, hypocrisy, accident-proneness, neurological stress around the face and jaw.
+</t>
+  </si>
+  <si>
     <t>Alpheratz (Alpha Andromedae)</t>
   </si>
   <si>
@@ -88,6 +108,17 @@
     <t>28°10'00"</t>
   </si>
   <si>
+    <t>⭐ Vertex / Andromeda Galaxy (M31)
+Constellation &amp; Degree: Near the head of Andromeda, ~27–28° Aries (approximate)
+Planetary Nature: Mars + Moon
+Body part: rules slightly to the back of the crown of the head
+This galactic force amplifies unconscious drives, deep passions, and psychic instability. It can bring visionary healing potential—or erupt as obsession, illness, or psychic fragmentation.
+Positive:
+Intense drive to succeed, gift for healing psychological illness, fearless confrontation of neurosis or shadow, mystic insight, transmutation through inner fire.
+Shadow:
+Blindness (literal or psychic), obsession, violence, mental illness, martyrdom, self-sabotage, inherited trauma, psychic instability, risk of violent death.</t>
+  </si>
+  <si>
     <t>Al Rescha (Alpha Piscium)</t>
   </si>
   <si>
@@ -97,6 +128,17 @@
     <t>29°42'00"</t>
   </si>
   <si>
+    <t>⭐ Al Rescha (α Piscium)
+Constellation &amp; Degree: Knot of the Fishes (Pisces), ~29° Aries
+Planetary Nature: Mars + Mercury (traditional); Spectral Class A2 suggests Venusian influence
+Body part: not specified in current sources
+Al Rescha marks the binding point of Pisces—linking paths, people, and ideas. A stabilizing node in a sea of chaos, it grants orientation and unity, or confusion if untethered.
+Positive:
+Unifier of people and systems, spiritual lifeline, creative intelligence, navigational wisdom, artist’s grace, connector of disparate threads, clarity in uncertainty.
+Shadow:
+Indecision, over-attachment, entanglement in others’ karma, anxiety, illusion of direction, misjudged loyalty, scandals when misaligned.</t>
+  </si>
+  <si>
     <t>Mirach (Beta Andromedae)</t>
   </si>
   <si>
@@ -151,6 +193,17 @@
     <t>44°33'00"</t>
   </si>
   <si>
+    <t>⭐ Almach (γ Andromedae)
+Constellation &amp; Degree: Foot of Andromeda, ~14°14′ Taurus
+Planetary Nature: Venus (Ptolemy, Robson), with alternating Mars/Jupiter influences per Ebertin and spectral data
+Body part: rules the left side of the neck
+Almach brings charm, beauty, and public favor through expressive grace and romantic magnetism.
+Positive:
+Artistic brilliance, cheerful sociability, creative elegance, public recognition.
+Shadow:
+Vanity, insecurity, emotional dependence, overindulgence, blocked creative fulfillment.</t>
+  </si>
+  <si>
     <t>Menkar (Alpha Ceti)</t>
   </si>
   <si>
@@ -160,6 +213,17 @@
     <t>44°38'00"</t>
   </si>
   <si>
+    <t>⭐ Menkar (α Ceti)
+Constellation &amp; Degree: Cetus, around 14°–15° Taurus
+Planetary Nature: Saturn (primary), with influence from Mars, Venus, and the Moon depending on source
+Body part: Rules the thyroid gland
+Menkar sits in the mouth or nose of the great sea monster, Cetus. As a powerful Saturn-type star, it often correlates with collective fear, karmic consequence, and ancestral burdens. It can mark the individual as a carrier of deep social or familial grief, especially through illness, misfortune, or sacrifice. Its influence can be sobering, even harsh, but when integrated, it fosters great humility, wisdom, and resilience through hardship. This star often speaks to the tension between isolation and service.
+Positive:
+Gravitas, endurance, social consciousness, karmic processing of ancestral or collective patterns, capacity to mature through trials, ability to withstand disgrace and rebuild.
+Shadow:
+Illness, loss of status, vulnerability to attack or ruin, scapegoating, chronic health issues (especially thyroid), deceptive associations, inherited burdens, existential fatigue.</t>
+  </si>
+  <si>
     <t>Bharani (41 Arietis)</t>
   </si>
   <si>
@@ -178,6 +242,16 @@
     <t>51°11'00"</t>
   </si>
   <si>
+    <t>⭐ Botein (δ Arietis)
+Constellation &amp; Degree: Tail of the Ram, ~27° Aries
+Planetary Nature: [Unspecified; inferred Mars–Mercury by Aries placement]
+Botein, once known as Al Butain, meaning “the Little Belly,” was part of the 28th Arabic Moon Mansion along with ε and ρ Arietis. Though modern sky maps place it in the tail of Aries, its origin suggests a connection to the hidden or interior—“belly” as a metaphysical seat of knowing. Lunar rituals aligned to this star emphasized treasure-seeking and restraint of captives, hinting at its ability to both illuminate and contain.
+Positive:
+Reveals hidden wealth, strategic insight, shrewd in negotiations, perceptive in matters of security and possession.
+Shadow:
+Control issues, fear of exposure, greed, or confinement—energetically linked to hoarding or power imbalance.</t>
+  </si>
+  <si>
     <t>Capulus (M34 Perseus)</t>
   </si>
   <si>
@@ -277,6 +351,17 @@
     <t>82°41'00"</t>
   </si>
   <si>
+    <t>⭐ Mintaka (δ Orionis)
+Constellation &amp; Degree: Orion, ~22° Gemini
+Planetary Nature: Saturn + Mercury
+Body Part: Left side of the 8th vertebra (First Dorsal)
+A lucky and dignified star, Mintaka grants honor, order, and strength, with a cerebral edge and martial sharpness. It conveys both divine protection and a tendency toward verbal combat. Success comes through disciplined action, organizational skill, and clear moral conviction. Misfortune arises when risk becomes recklessness or argument turns to provocation.
+Positive:
+Protection, dignity, mental clarity, organization, energy, moral conviction, strength in battle.
+Shadow:
+Overzealous arguments, combative pride, reckless crusading, moral rigidity.</t>
+  </si>
+  <si>
     <t>El Nath (Beta Tauri)</t>
   </si>
   <si>
@@ -286,6 +371,17 @@
     <t>82°54'00"</t>
   </si>
   <si>
+    <t>⭐ El Nath (β Tauri)
+Constellation &amp; Degree: Taurus / Auriga crossover, ~22° Gemini
+Planetary Nature: Mars + Mercury (spectrally Jupiter)
+Body Part: Right side of the 8th vertebra (First Dorsal)
+El Nath, "The Butting One," sits at the tip of the Bull’s northern horn. It marks a forceful and ambitious nature—headstrong, combative, and skilled with tools or words. Though it offers honor and fortune, the Mars-Mercury mix creates sharp edges: bold pursuit, tactical brilliance, or conflict-prone arrogance. Often a “frontline officer,” this star empowers those willing to charge ahead but warns against stubborn pride and reckless crusading.
+Positive:
+Fortune, technical skill, ambition, martial clarity, tactical strength, commanding presence.
+Shadow:
+Combativeness, verbal aggression, obstinance, misfortune through overreach or stubbornness.</t>
+  </si>
+  <si>
     <t>Alnilam (Epsilon Orionis)</t>
   </si>
   <si>
@@ -295,6 +391,18 @@
     <t>83°47'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Alnilam (ε Orionis)
+Constellation &amp; Degree: Orion’s Belt, ~23° Gemini
+Planetary Nature: Jupiter + Saturn (spectrally Jupiter)
+Body Part: Diaphragm
+Alnilam, the radiant center of Orion’s Belt (from Al Nitham, “String of Pearls”), signals bold achievement and the potential for public acclaim—but often of a fleeting kind. Its Jupiter-Saturn nature lends grandeur, gravitas, and aspiration, yet its brilliance can attract both admiration and danger. Combative, theatrical, and sometimes shameless, Alnilam gives an intense drive for recognition that can elevate or destroy depending on alignment.
+Positive:
+High honors, dazzling charisma, ambition, leadership, mental sharpness, reward for great effort.
+Shadow:
+Fleeting fame, arrogance, recklessness, dishonor through deceit, romantic scandal, showy aggression.
+</t>
+  </si>
+  <si>
     <t>Meissa (Lambda Orionis)</t>
   </si>
   <si>
@@ -367,6 +475,17 @@
     <t>93°46'00"</t>
   </si>
   <si>
+    <t>⭐ Propus (ι Geminorum)
+Constellation &amp; Degree: Between the shoulders of the Twins, ~19°01′ Cancer
+Planetary Nature: Mercury + Venus (Robson); with some Sun and Mars influence from spectral class
+Body part: rules the top of the stomach
+Propus enhances associative thinking and psychic receptivity, but can overstimulate the nervous system and gut when imbalanced.
+Positive:
+Eloquence, intellectual finesse, strength, psychic insight, success in arts or speech.
+Shadow:
+Overindulgence, neurosis, paranoia, digestive distress, escapism through comfort.</t>
+  </si>
+  <si>
     <t>Tejat (Mu Geminorum)</t>
   </si>
   <si>
@@ -403,6 +522,17 @@
     <t>105°18'00"</t>
   </si>
   <si>
+    <t>⭐ Canopus (α Carinae)
+Constellation &amp; Degree: Hull of Argo Navis (Carina), ~15° Cancer
+Planetary Nature: Jupiter + Saturn (traditional); Spectral Class A9 adds Venus + Mercury overtones
+Body part: Left side below the breast
+Canopus is a star of ancient reverence and far-reaching voyages—physical, spiritual, and emotional. Its light can bestow greatness through perseverance, guiding the seeker toward mastery, but often through trials that test the heart and soul.
+Positive:
+Expansive vision, love of travel, sacred duty, spiritual authority, transformation through hardship, artistic elevation, profound knowledge, enduring reputation.
+Shadow:
+Emotional turmoil, exile or isolation, lawsuits, death by water, martyrdom, unrequited love, chronic longing, tendency toward escapism or self-destruction if misaligned.</t>
+  </si>
+  <si>
     <t>Wasat (Delta Geminorum)</t>
   </si>
   <si>
@@ -439,6 +569,17 @@
     <t>116°06'00"</t>
   </si>
   <si>
+    <t>⭐ Procyon (α Canis Minoris)
+Constellation &amp; Degree: Canis Minor, ~25° Cancer
+Planetary Nature: Mercury + Mars
+Body Part: Below the left eye
+Blazing, restless, and fiercely intelligent, Procyon grants rapid rise, sharp instincts, and bold initiative—but warns of burnout, backlash, or fall from grace if not tempered with patience. It’s a star of sudden elevation and equally sudden collapse. Courage, speed, and visionary action are highlighted, but so are temper, pride, and overreach.
+Positive:
+Sharp mind, psychic protection, swift success, courage under fire, eloquence, fierce loyalty.
+Shadow:
+Impatience, ego-driven collapse, rage, volatility, fame followed by downfall.</t>
+  </si>
+  <si>
     <t>Praesepe (M44/The Beehive Cluster)</t>
   </si>
   <si>
@@ -475,6 +616,19 @@
     <t>133°58'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Acubens (α Cancri)
+Constellation &amp; Degree: Cancer, approx. 13° Leo
+Planetary Nature: Saturn + Mercury (with alternate spectral influence of Venus)
+Body Part: Outer tissues of the left kidney
+Acubens, located in the southern claw of the Crab, is the slicing point of the Cancer constellation—its name deriving from Al Zubanah, “The Claw.” This is not the gentle, maternal side of Cancer. Acubens bears the knife's edge of intellect under pressure, often manifesting as a quick, reactive mind with a tendency toward cunning, coercion, or forced mental adaptation. Like a nerve exposed, this star can produce brilliance or bitterness—depending on how well the native navigates inner conflict and external pressure.
+While the Saturn-Mercury combination often connotes cold calculation or systemic thought, Acubens pushes this toward extremes. It can bestow organized brilliance, speculative ability, and enduring tenacity—but also carries the darker archetype of the strategist turned saboteur, or the poisoner whose words cut deeper than any blade.
+Positive:
+Strategic mind, resilience under mental pressure, clever underdog, verbal precision, organizational leadership, speculative success, activist thinker.
+Shadow:
+Malevolence, lying, criminality, internalized rage, poisoning (literal or emotional), repression turned reactive, weaponized intelligence.
+</t>
+  </si>
+  <si>
     <t>Alterf (Lambda Leonis)</t>
   </si>
   <si>
@@ -556,6 +710,18 @@
     <t>161°39'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Zosma (δ Leonis)
+Constellation &amp; Degree: Back of the Lion, ~11° Virgo
+Planetary Nature: Saturn + Venus (spectrally Venus)
+Body Part: Left side of the body to the back of the lungs
+Zosma sits on the Lion’s back, a sensitive Saturn–Venus point carrying themes of melancholy, prophetic sensitivity, and moral testing. Often linked with suffering for a higher purpose or finding meaning through disgrace or loss, Zosma marks those who carry both pain and potential for compassionate insight. In ancient Babylon it was part of the Oracle god Kua, lending it visionary and prophetic undertones.
+Positive:
+Sharp mind, prophetic insight, ability to inspire through vulnerability, strength through adversity, social influence through emotional intelligence.
+Shadow:
+Melancholy, selfishness, shameless egotism, fear of poison, intestinal issues, disgraceful fame, internalized shame.
+</t>
+  </si>
+  <si>
     <t>Coxa (Theta Leonis)</t>
   </si>
   <si>
@@ -700,6 +866,18 @@
     <t>213°29'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Princeps (δ Boötis)
+Constellation &amp; Degree: Spear of Boötes (the Herdsman), ~03°10′ Scorpio
+Planetary Nature: Mercury + Saturn (Robson, Ptolemy); Sun influence from spectral type
+Body part: rules four inches below the navel
+Princeps grants mental depth, discipline, and protective authority.
+Positive:
+Research skill, leadership, spiritual resilience, loyalty to duty.
+Shadow:
+Fear-driven restraint, self-doubt, obsessive overthinking, karmic burdens.
+</t>
+  </si>
+  <si>
     <t>Syrma (Iota Virginis)</t>
   </si>
   <si>
@@ -745,6 +923,17 @@
     <t>225°24'00"</t>
   </si>
   <si>
+    <t>⭐ Zubenelgenubi (α Librae)
+Constellation &amp; Degree: Libra, around 15° Scorpio
+Planetary Nature: Saturn + Mars
+Body part: Rules the lower half of the colon
+Zubenelgenubi, the Southern Scale, represents the price of imbalance and unresolved judgment. Its Saturn-Mars nature lends it a heavy, often harsh influence—linked with disgrace, violence, and karmic retribution. It can indicate entanglement in injustice, obsession with punishment, or being cast into roles of villain or victim. Still, it can also forge fierce protectors and uncompromising truth-tellers—if the energy is tempered with wisdom.
+Positive:
+Courage to confront wrongs, karmic awareness, power to rectify imbalance, unflinching pursuit of truth, ability to hold space for social or relational shadow.
+Shadow:
+Disgrace, malevolence, unforgiveness, violent tendencies, abuse of authority, miscarriages of justice, inflammatory illness (especially in the colon), karmic backlash.</t>
+  </si>
+  <si>
     <t>Zubeneshamali (Beta Librae)</t>
   </si>
   <si>
@@ -790,6 +979,17 @@
     <t>242°37'00"</t>
   </si>
   <si>
+    <t>⭐ Yed Prior (δ Ophiuchi)
+Constellation &amp; Degree: Ophiuchus, approx. 3° Sagittarius
+Planetary Nature: Saturn + Venus
+Body Part: Rules the left side of the second lumbar vertebra
+Yed Prior, "The Fore Star of the Hand," resides in the left hand of the Serpent Holder, just as it grasps the serpent near its head. With a Saturn-Venus charge, this star governs a paradoxical blend of discipline and indulgence, restraint and temptation. It can signify practical healing hands and courageous boundary-keepers—or those who transgress societal or moral codes. In negative charts, it can trigger shamelessness, immorality, or scandal, especially when power is abused. In constructive alignments, it suggests grounded compassion, hands-on healing, and fierce personal integrity.
+Positive:
+Practical healer, committed servant, courageous in the face of moral hypocrisy, uses power to protect or reform, determined, touch of the mystic or medical hand.
+Shadow:
+Shamelessness, abuse of position, sexual immorality, chronic spinal or lower back issues, seduction through power, revolutionary without cause, scandal.</t>
+  </si>
+  <si>
     <t>Dschubba/Isidis (Delta Scorpii)</t>
   </si>
   <si>
@@ -799,6 +999,18 @@
     <t>242°54'00"</t>
   </si>
   <si>
+    <t>⭐ Dschubba (δ Scorpii)
+Constellation &amp; Degree: Scorpio, approx. 2–3° Sagittarius
+Planetary Nature: Mars + Saturn (with alternate associations to Jupiter or Mercury)
+Body Part: Rules the left side of the buttocks
+Dschubba—also known as Isidis or Acrab—is located in the forehead of the Scorpion, a region known historically as Al Akil Al Jabbah, the “Crown of the Forehead.” Despite its ominous Mars–Saturn charge, Dschubba was one of the few stars in Scorpio once considered auspicious, symbolizing concentrated intelligence, psychic defense, and precision. It marks a zone of extreme intensity and focused will—whether manifesting in surgeons, investigators, occultists, or warriors.
+The darker face of Dschubba includes assault, shamelessness, treachery, or violent backlash. Positively, it grants sharp insight, patient strategy, and unrivaled control under pressure. This is the Scorpio war helm—where every thought is a blade.
+Positive:
+Strategic genius, surgical precision, psychic shielding, occult mastery, investigator’s mind, triumph over adversity through secrecy and skill.
+Shadow:
+Assault, revenge, psychosexual manipulation, secrecy turned corrosive, betrayal of trust, karmic entanglements with violence or dishonor.</t>
+  </si>
+  <si>
     <t>Graffias/Acrab (Beta Scorpii)</t>
   </si>
   <si>
@@ -808,6 +1020,17 @@
     <t>243°31'00"</t>
   </si>
   <si>
+    <t>⭐ Graffias / Acrab (β Scorpii)
+Constellation &amp; Degree: Head of the Scorpion (Scorpius), ~3–4° Sagittarius
+Planetary Nature: Mars + Saturn (traditional); some sources add Jupiter or Moon via aspect
+Body part: rules the left side of the buttocks, close to the spine
+Acrab bestows intense precision, strategic aggression, and hidden depth, but carries potential for venomous projection and deep karmic entanglements if misused.
+Positive:
+Surgical skill, investigative genius, mastery in secrecy, persistence under pressure, high intellect, elite success in warfare, medicine, or espionage.
+Shadow:
+Malevolence, cruelty, contagious illness, treachery, criminality, violent power plays, dangerous research, hidden rot at the core.</t>
+  </si>
+  <si>
     <t>Han (Zeta Ophiuchi)</t>
   </si>
   <si>
@@ -835,6 +1058,17 @@
     <t>252°17'00"</t>
   </si>
   <si>
+    <t>⭐ Alwaid (β Draconis, Rastaban)
+Constellation &amp; Degree: Head of the Dragon, ~13° Sagittarius
+Planetary Nature: Saturn + Mars (spectrally Solar)
+Body Part: Left side of the spine, 6th Lumbar vertebra
+Alwaid, also known as Rastaban or the Dragon’s Eye, sits in the head of Draco and holds ancient significance as a former pole star, once revered in Egyptian temple alignments. Its Saturn-Mars tone sharpens the intellect and intensifies ambition, but also carries a reputation for downfall through violence, dishonor, or criminal behavior. When consciously channeled, it can yield powerful insight and access to ancient wisdom—especially related to healing and hidden knowledge.
+Positive:
+Prominence, mental intensity, intuitive healing intelligence, visionary leadership, reverence for ancient knowledge.
+Shadow:
+Dishonor, violent downfall, criminal behavior, misuse of power, spinal instability (energetically or literally).</t>
+  </si>
+  <si>
     <t>Rasalgethi (Alpha Herculis)</t>
   </si>
   <si>
@@ -871,6 +1105,17 @@
     <t>264°20'00"</t>
   </si>
   <si>
+    <t>⭐ Lesath (υ Scorpii)
+Constellation &amp; Degree: Stinger of the Scorpion, ~24°01′ Sagittarius
+Planetary Nature: Mercury + Mars (primary); Jupiter influence via spectral type
+Body part: rules the middle of the groin
+Lesath transmits piercing intelligence, intense psychic force, and a drive toward revelation or destruction. It is a blade-point star—surgical, exacting, volatile.
+Positive:
+Keen insight, fearless intellect, psychic precision, success in science, writing, high-pressure careers, sudden fortune, transformative clarity.
+Shadow:
+Violence, malice, moral corrosion, obsession, surgical crises, self-destruction, sexual rage, groin-related health issues or energetic trauma.</t>
+  </si>
+  <si>
     <t>Shaula (Lambda Scorpii)</t>
   </si>
   <si>
@@ -934,6 +1179,18 @@
     <t>273°32'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Polis (μ Sagittarii)
+Constellation &amp; Degree: Bow of the Archer, ~3° Capricorn
+Planetary Nature: Jupiter + Mars — spiritual rulership, assertive wisdom
+Body part: Rules the right leg above the knee
+Polis channels the fervor of sacred leadership. It carries the commanding dignity of spiritual authority—philosopher-kings, high priests, moral reformers, or warrior-poets. With a well-placed Sun or MC, the bearer is often chosen by legacy or karma to lead from the frontlines of principle.
+Positive:
+Noble ambition, principled leadership, spiritual discipline, compelling vision, philosophical conviction, piercing truthfulness, destiny-bound legacy.
+Shadow:
+Dogmatism, spiritual arrogance, misuse of authority, authoritarian preaching, unmet potential, self-righteous crusading, pretender to thrones they can’t carry.
+</t>
+  </si>
+  <si>
     <t>Facies (M22)</t>
   </si>
   <si>
@@ -952,6 +1209,18 @@
     <t>282°42'00"</t>
   </si>
   <si>
+    <t>⭐ Nunki (σ Sagittarii)
+Constellation &amp; Degree: Sagittarius, approx. 12° Capricorn
+Planetary Nature: Jupiter + Mercury (with alternate attribution: Saturn + Mercury)
+Body Part: Below the left knee
+Nunki, also known as Pelagus, is one of the few stars in Sagittarius with a strongly dignified Jupiter-Mercury tone that carries a divine authority of voice. The Chaldean name translates to “The Edict of the Sea,” symbolizing law, decree, and sacred order spoken across vast domains—whether oceans, institutions, or ideologies. This is a star of commanding communication—those with Nunki strong in their charts often serve as emissaries, statespeople, broadcasters, or spiritual teachers, with their power rooted in a compelling blend of faith and intellect.
+Nunki’s influence blends devotion, optimism, and blunt candor. It speaks what others dare not say—often as a disruptive truth that demands restructuring of old systems, values, or assumptions. At its best, Nunki calls the native to embody right speech and use their platform to elevate collective vision. At its worst, it may foster moral hypocrisy or betrayal disguised as righteousness.
+Positive:
+Spiritual leadership, visionary communication, unshakable integrity, psychological insight, diplomatic skill, intuitive travel through collective consciousness (empathic direction, psychometry).
+Shadow:
+Religious superiority, betrayal masked as honesty, opportunistic diplomacy, chronic ideological illness, arrogance of spiritual or moral authority.</t>
+  </si>
+  <si>
     <t>Ascella (Zeta Sagittarii)</t>
   </si>
   <si>
@@ -961,6 +1230,17 @@
     <t>283°57'00"</t>
   </si>
   <si>
+    <t>⭐ Ascella (ζ Sagittarii)
+Constellation &amp; Degree: Armpit of the Archer (Sagittarius), ~13°38′ Capricorn
+Planetary Nature: Jupiter + Mercury (traditional); spectral influence suggests Venus
+Body part: rules below the right knee
+Ascella brings cheerful brilliance, strategic insight, and public honor. It carries spiritual strength and leadership potential, with a gift for placing things in their most effective position.
+Positive:
+Good fortune, moral resilience, friendship with powerful allies, success in governance, military, or publishing; visionary planning and grace under pressure.
+Shadow:
+Troublesome temperament, spiritual frustration, insecurity in relationships, delayed recognition (especially for women), potential for knee discomfort.</t>
+  </si>
+  <si>
     <t>Manubrium (Omicron Sagittarii)</t>
   </si>
   <si>
@@ -970,6 +1250,17 @@
     <t>285°19'00"</t>
   </si>
   <si>
+    <t>⭐ Manubrium (ο Sagittarii)
+Constellation &amp; Degree: Face of the Archer, ~12° Capricorn
+Planetary Nature: Sun + Mars — vital fire, impact, ignition
+Body part: Back of the left knee at the center
+Fiery and forceful, Manubrium is a volatile fixed star associated with the power of ignition—explosive insight, courageous confrontation, or even literal combustion. It is a trigger point for bold action, inner fire, and physical or political heat.
+Positive:
+Heroism, precision under pressure, warrior courage, defiant brilliance, battle instinct, high-performance drive, visionary intensity.
+Shadow:
+Explosive temper, eye injuries, chronic inflammation, burnout, excessive pride, blind aggression, fire-related trauma, or obsession with control.</t>
+  </si>
+  <si>
     <t>Wega/Vega (Alpha Lyrae)</t>
   </si>
   <si>
@@ -979,6 +1270,17 @@
     <t>285°38'00"</t>
   </si>
   <si>
+    <t>⭐ Vega (α Lyrae)
+Constellation &amp; Degree: The Harp (Lyra), ~15° Capricorn
+Planetary Nature: Venus + Mercury — grace, harmony, charisma
+Body part: Back of the right knee
+Vega is the song of the soul—radiant, poetic, and magnetic. It confers musical or artistic brilliance, public appeal, and refined ideals, but can also inflate ego or obscure truth in pursuit of fame.
+Positive:
+Artistic mastery, popularity, poetic genius, refinement, charisma, harmony in public life, psychic and musical gifts, protector of visionaries.
+Shadow:
+Vanity, entitlement, fleeting fame, seduction by praise, egotism, laziness masked as inspiration, emotional detachment, exploitative charm.</t>
+  </si>
+  <si>
     <t>Albaldah (Pi Sagittarii)</t>
   </si>
   <si>
@@ -988,6 +1290,17 @@
     <t>286°35'00"</t>
   </si>
   <si>
+    <t>⭐ Albaldah (π Sagittarii)
+Constellation &amp; Degree: Head of the Archer, ~11° Capricorn
+Planetary Nature: Mercury + Saturn — mind control, solemn focus
+Body part: Rules the upper inside of the left thigh
+Albaldah carries the weight of wisdom, structure, and inner resolve. It lends gravitas and foresight, yet can produce suppression of emotional expression and inner tension if not consciously transmuted.
+Positive:
+Strategic mind, organizational power, maturity beyond years, solitude as strength, sacred architecture, steady judgment, long-term vision.
+Shadow:
+Emotional repression, chronic over-seriousness, depressive cycles, rigid thinking, burnout from excessive duty, or fear of vulnerability.</t>
+  </si>
+  <si>
     <t>Rukbat (Alpha Sagittarii)</t>
   </si>
   <si>
@@ -1015,6 +1328,17 @@
     <t>296°10'00"</t>
   </si>
   <si>
+    <t>⭐ Terebellum (ω Sagittarii)
+Constellation &amp; Degree: Tail of the Archer (Sagittarius), ~27–28° Capricorn
+Planetary Nature: Venus + Saturn (traditional); Sun influence from spectral type
+Body part: rules three inches below the right knee
+Terebellum confers ambition, leadership, and calculated success, but often at a cost—emotional regret, moral compromise, or ruthless self-interest.
+Positive:
+Perseverance, strategic ambition, leadership in complex systems, success through endurance, high status potential.
+Shadow:
+Cunning, moral ambiguity, emotional detachment, regret after gain, self-destruction, repulsiveness when misaligned.</t>
+  </si>
+  <si>
     <t>Albireo (Beta Cygni)</t>
   </si>
   <si>
@@ -1024,6 +1348,18 @@
     <t>301°35'00"</t>
   </si>
   <si>
+    <t>⭐ Albireo (β Cygni)
+Constellation &amp; Degree: Cygnus, approx. 24° Aquarius
+Planetary Nature: Venus + Mercury (with some sources noting Martian undertones)
+Body Part: 7 inches below the bend of the left knee
+Albireo, the radiant beak of the celestial Swan, offers a poetic and magnetic social aura—marked by charisma, artistry, and a refined aesthetic sensibility. With its twin tones of Venus and Mercury, Albireo shines through gentle charm, eloquence, and grace under pressure, especially in moments of hardship or despair. Those marked by this star are often beloved by others, even when their own emotional landscape is stormy.
+There’s a bittersweet undertone to Albireo’s influence—fame, fortune, and adoration may come with or because of misfortune. The Swan flies highest when dignity is preserved through trials; downfall tends to follow when success is not tempered by humility. This star encourages expression through beauty, particularly in moments where words or appearances fail.
+Positive:
+Elegant voice, diplomatic beauty, magnetic warmth, artistry in adversity, lovable disposition, thoughtful communication, graceful movement, visual or poetic expression.
+Shadow:
+Despair masked with charm, social downfall after pride, indiscretion, emotional escapism, loss through over-identification with aesthetic success or idealized persona.</t>
+  </si>
+  <si>
     <t>Altair (Alpha Aquilae)</t>
   </si>
   <si>
@@ -1033,6 +1369,20 @@
     <t>302°06'00"</t>
   </si>
   <si>
+    <t xml:space="preserve">⭐ Altair (α Aquilae)
+Constellation &amp; Degree: Aquila, approx. 2° Aquarius
+Planetary Nature: Mars + Jupiter (with noted spectral influence of Venus, and secondary associations with Mercury)
+Body Part: 7 inches below the bend of the left knee
+Altair, the piercing eye of the celestial Eagle, imbues the native with boldness, ambition, and fierce independence. Often linked with military prowess and elevated command, this star lifts individuals into positions of visibility or honor, often through acts of courage or sheer force of will. Its Mars–Jupiter signature is explosive yet regal—like the eagle diving from the heights, swift and sovereign.
+Aquila, the constellation housing Altair, is associated with powerful empires, divine ascent, and celestial surveillance. It portends clairvoyance, sudden changes in environment or politics, and rulership over matters such as space travel, aerial warfare, imperial power structures, and religious institutions. Its link to the Roman Catholic Church, the United States, and the European Union highlights its impact on collective destiny and ideological authority.
+When well-aspected, Altair grants fame, leadership, and valor. But without grounding, it may produce those who rise too fast, act rashly, or fall into disgrace after overreaching. Power with principle leads to lasting flight; power without it invites a crash.
+Positive:
+Courageous, visionary, commanding presence, penetrating mind, ambition with conviction, military or legal advancement, clairvoyance, success in politics or statecraft, technological influence, respected by peers.
+Shadow:
+Overbearing pride, foolhardy risks, fall from grace, ruthlessness, mischief-making, fleeting success, destructive ambition, misuse of power, danger through high-tech weaponry or political overreach.
+</t>
+  </si>
+  <si>
     <t>Algedi/Giedi (Alpha Capricorni)</t>
   </si>
   <si>
@@ -1060,6 +1410,17 @@
     <t>305°02'00"</t>
   </si>
   <si>
+    <t>⭐ Oculus (π Capricorni)
+Constellation &amp; Degree: Right eye of Capricornus, ~04°43′ Aquarius
+Planetary Nature: Saturn + Venus
+Body part: rules two inches below the center of the calf of the left leg
+Oculus imparts cool observation, composure in authority, and a grounded sense of tradition, but may struggle with moral clarity or emotional coldness when afflicted.
+Positive:
+Calm leadership, steady intellect, resilience, practical intuition, gains through marriage or institutional support.
+Shadow:
+Cold detachment, moral ambiguity, loss in love, leg ailments, lack of foresight, emotional suppression, decay through neglect.</t>
+  </si>
+  <si>
     <t>Bos (Rho Capricorni)</t>
   </si>
   <si>
@@ -1078,6 +1439,17 @@
     <t>312°03'00"</t>
   </si>
   <si>
+    <t>⭐ Albali (ε Aquarii)
+Constellation &amp; Degree: Shoulder of the Water Bearer (Aquarius), ~11°43′ Aquarius
+Planetary Nature: Saturn + Mercury (traditional); potential Neptune resonance from heliocentric node
+Body part: not specified in current sources
+Albali represents hidden threat or blessing — the "Lucky Swallower" swallows light and influence. It brings quiet potency that can tilt toward either fortune or persecution.
+Positive:
+Hidden strength, stealthy support, sharp perception, helpfulness in crisis, spiritual purification through trials.
+Shadow:
+Sudden danger, persecution, potential for disgrace or fatal entanglement, psychic vulnerability.</t>
+  </si>
+  <si>
     <t>Armus (Eta Capricorni)</t>
   </si>
   <si>
@@ -1087,6 +1459,17 @@
     <t>313°03'00"</t>
   </si>
   <si>
+    <t>⭐ Armus (η Capricorni)
+Constellation &amp; Degree: Heart of the Goat (Capricornus), ~12°44′ Aquarius
+Planetary Nature: Mars + Mercury (traditional); spectral influence suggests Venus + Mercury
+Body part: rules the front of the left leg, 7 inches below the knee
+Armus energizes social impact and burden-bearing leadership but brings friction when not directed constructively. It marks those who provoke, lead, or endure under pressure.
+Positive:
+Willingness to shoulder responsibility, activist spirit, sharp rhetoric, capacity for social influence through writing, leadership in times of crisis.
+Shadow:
+Nagging, instability, shamelessness, argumentative nature, troublemaking tendencies, contempt for others.</t>
+  </si>
+  <si>
     <t>Dorsum (Theta Capricorni)</t>
   </si>
   <si>
@@ -1157,6 +1540,17 @@
   </si>
   <si>
     <t>328°05'00"</t>
+  </si>
+  <si>
+    <t>⭐ Aljanah (ε Cygni)
+Constellation &amp; Degree: Right wing of the Swan (Cygnus), approx. ~13–14° Aquarius (exact tropical degree may vary slightly depending on source)
+Planetary Nature: Mars (dominant, per Noonan) with additional influence from Mercury and Venus depending on sources and spectral interpretation
+Body part: not specified in current sources
+Aljanah imparts poetic perception, forceful charisma, and a swanlike grace, but with an edge — it flies between elegance and the threat of piercing impact.
+Positive:
+Bold expression, refined talent, visionary art, powerful voice or presence, connection to birds or aerial symbolism, mystical or poetic insight.
+Shadow:
+Volatility in affections, aggression masked by charm, arrogance, late-blooming talents, ego-driven expression, sharp-tongued cruelty.</t>
   </si>
   <si>
     <t>Sadalmelek (Alpha Aquarii)</t>
@@ -1253,7 +1647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1270,6 +1664,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1300,14 +1698,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1524,7 +1925,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1540,1908 +1941,2017 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>2.9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
         <v>9.47</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
         <v>14.62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
         <v>20.22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
         <v>22.27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
         <v>27.13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
         <v>28.17</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
         <v>29.7</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3">
         <v>30.72</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3">
         <v>33.52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3">
         <v>34.28</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3">
         <v>37.98</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3">
         <v>38.13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3">
         <v>44.55</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3">
         <v>44.63</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3">
         <v>48.53</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3">
         <v>51.18</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3">
         <v>54.5</v>
       </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3">
         <v>56.48</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="3">
         <v>60.32</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3">
         <v>62.4</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3">
         <v>66.13</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3">
         <v>70.12</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="A25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3">
         <v>77.15</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3">
         <v>81.27</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="3">
         <v>82.18</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="3">
         <v>82.5</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="3">
         <v>82.68</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="A30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="3">
         <v>82.9</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="A31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="3">
         <v>83.78</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="A32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="3">
         <v>84.03</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="A33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="3">
         <v>85.03</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="A34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="3">
         <v>85.1</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="A35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="3">
         <v>86.72</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="A36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="3">
         <v>88.9</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="A37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="3">
         <v>89.08</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="A38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="3">
         <v>90.23</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="A39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="3">
         <v>93.77</v>
       </c>
+      <c r="E39" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="A40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="3">
         <v>95.63</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="A41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="3">
         <v>99.43</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="3">
         <v>104.4</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="A43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="3">
         <v>105.3</v>
       </c>
+      <c r="E43" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="A44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="3">
         <v>108.85</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="A45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="3">
         <v>110.57</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="A46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="3">
         <v>113.53</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="A47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="3">
         <v>116.1</v>
       </c>
+      <c r="E47" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="A48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="3">
         <v>127.53</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="A49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="3">
         <v>127.87</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="A50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="3">
         <v>129.05</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="3">
         <v>133.97</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="A52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="3">
         <v>138.22</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="A53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="3">
         <v>141.03</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="A54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="3">
         <v>147.6</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="A55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="3">
         <v>147.9</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="A56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="3">
         <v>148.23</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="A57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="3">
         <v>150.15</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="A58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="3">
         <v>156.05</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="A59" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="3">
         <v>157.78</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="A60" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="3">
         <v>161.65</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="A61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="3">
         <v>163.77</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="A62" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="3">
         <v>171.95</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="A63" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="3">
         <v>174.03</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="A64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="3">
         <v>177.02</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="A65" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="3">
         <v>177.27</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="A66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="3">
         <v>177.52</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="A67" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="3">
         <v>182.42</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="A68" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="3">
         <v>185.17</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="A69" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="3">
         <v>190.27</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="A70" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="3">
         <v>190.47</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="A71" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="3">
         <v>193.78</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="A72" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="3">
         <v>198.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="A73" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="3">
         <v>202.48</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="A74" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="3">
         <v>204.18</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="A75" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="3">
         <v>204.55</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="A76" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="3">
         <v>213.48</v>
       </c>
+      <c r="E76" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="2">
+      <c r="A77" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="3">
         <v>214.13</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="A78" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="3">
         <v>217.28</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="A79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="3">
         <v>222.18</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" s="2">
+      <c r="A80" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="3">
         <v>222.62</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="A81" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="3">
         <v>225.4</v>
       </c>
+      <c r="E81" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="2">
+      <c r="A82" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="3">
         <v>229.7</v>
       </c>
+      <c r="E82" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="2">
+      <c r="A83" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="3">
         <v>232.4</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="A84" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="3">
         <v>234.12</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="A85" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="3">
         <v>239.77</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="A86" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" s="3">
         <v>242.62</v>
       </c>
+      <c r="E86" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" s="2">
+      <c r="A87" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" s="3">
         <v>242.9</v>
       </c>
+      <c r="E87" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="A88" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="3">
         <v>243.52</v>
       </c>
+      <c r="E88" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D89" s="2">
+      <c r="A89" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" s="3">
         <v>249.55</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="A90" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="3">
         <v>250.08</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="2">
+      <c r="A91" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="3">
         <v>252.28</v>
       </c>
+      <c r="E91" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="2">
+      <c r="A92" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="3">
         <v>256.5</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D93" s="2">
+      <c r="A93" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="3">
         <v>258.28</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="A94" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="3">
         <v>262.77</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="2">
+      <c r="A95" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="3">
         <v>264.33</v>
       </c>
+      <c r="E95" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="2">
+      <c r="A96" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D96" s="3">
         <v>264.92</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="A97" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="3">
         <v>266.12</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="2">
+      <c r="A98" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" s="3">
         <v>269.03</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="A99" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="3">
         <v>270.07</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D100" s="2">
+      <c r="A100" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" s="3">
         <v>271.35</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D101" s="2">
+      <c r="A101" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="3">
         <v>271.6</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D102" s="2">
+      <c r="A102" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="3">
         <v>273.53</v>
       </c>
+      <c r="E102" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D103" s="2">
+      <c r="A103" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" s="3">
         <v>278.63</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D104" s="2">
+      <c r="A104" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="3">
         <v>282.7</v>
       </c>
+      <c r="E104" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D105" s="2">
+      <c r="A105" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D105" s="3">
         <v>283.95</v>
       </c>
+      <c r="E105" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D106" s="2">
+      <c r="A106" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D106" s="3">
         <v>285.32</v>
       </c>
+      <c r="E106" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107" s="2">
+      <c r="A107" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" s="3">
         <v>285.63</v>
       </c>
+      <c r="E107" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="2">
+      <c r="A108" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" s="3">
         <v>286.58</v>
       </c>
+      <c r="E108" s="2" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D109" s="2">
+      <c r="A109" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D109" s="3">
         <v>286.97</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D110" s="2">
+      <c r="A110" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="3">
         <v>290.12</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D111" s="2">
+      <c r="A111" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="3">
         <v>296.17</v>
       </c>
+      <c r="E111" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D112" s="2">
+      <c r="A112" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D112" s="3">
         <v>301.58</v>
       </c>
+      <c r="E112" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="A113" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D113" s="3">
         <v>302.1</v>
       </c>
+      <c r="E113" s="2" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="2">
+      <c r="A114" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" s="3">
         <v>304.1</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D115" s="2">
+      <c r="A115" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D115" s="3">
         <v>304.37</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D116" s="2">
+      <c r="A116" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="3">
         <v>305.03</v>
       </c>
+      <c r="E116" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D117" s="2">
+      <c r="A117" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D117" s="3">
         <v>305.48</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D118" s="2">
+      <c r="A118" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D118" s="3">
         <v>312.05</v>
       </c>
+      <c r="E118" s="2" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D119" s="2">
+      <c r="A119" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" s="3">
         <v>313.05</v>
       </c>
+      <c r="E119" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="A120" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D120" s="3">
         <v>314.17</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="A121" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" s="3">
         <v>316.23</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D122" s="2">
+      <c r="A122" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" s="3">
         <v>317.73</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D123" s="2">
+      <c r="A123" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D123" s="3">
         <v>320.52</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="A124" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D124" s="3">
         <v>322.1</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D125" s="2">
+      <c r="A125" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" s="3">
         <v>323.72</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D126" s="2">
+      <c r="A126" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D126" s="3">
         <v>323.87</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D127" s="2">
+      <c r="A127" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D127" s="3">
         <v>328.08</v>
       </c>
+      <c r="E127" s="2" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D128" s="2">
+      <c r="A128" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D128" s="3">
         <v>333.68</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D129" s="2">
+      <c r="A129" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D129" s="3">
         <v>334.18</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="A130" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D130" s="3">
         <v>335.63</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D131" s="2">
+      <c r="A131" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D131" s="3">
         <v>337.05</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D132" s="2">
+      <c r="A132" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D132" s="3">
         <v>339.18</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D133" s="2">
+      <c r="A133" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D133" s="3">
         <v>341.92</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D134" s="2">
+      <c r="A134" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D134" s="3">
         <v>345.63</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D135" s="2">
+      <c r="A135" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" s="3">
         <v>345.82</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D136" s="2">
+      <c r="A136" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D136" s="3">
         <v>353.8</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D137" s="2">
+      <c r="A137" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D137" s="3">
         <v>359.68</v>
       </c>
     </row>
